--- a/Data/Bilançolar/AKSUE.xlsx
+++ b/Data/Bilançolar/AKSUE.xlsx
@@ -17880,7 +17880,7 @@
         <v>-1146376</v>
       </c>
       <c r="C100" t="n">
-        <v>-595630</v>
+        <v>-595629</v>
       </c>
       <c r="D100" t="n">
         <v>-298188</v>
@@ -18230,7 +18230,7 @@
         <v>-1146376</v>
       </c>
       <c r="C102" t="n">
-        <v>-595630</v>
+        <v>-595629</v>
       </c>
       <c r="D102" t="n">
         <v>-298188</v>
@@ -18580,7 +18580,7 @@
         <v>474694</v>
       </c>
       <c r="C104" t="n">
-        <v>-2879780</v>
+        <v>-2879779</v>
       </c>
       <c r="D104" t="n">
         <v>-18838587</v>
@@ -19105,7 +19105,7 @@
         <v>474694</v>
       </c>
       <c r="C107" t="n">
-        <v>-2879780</v>
+        <v>-2879779</v>
       </c>
       <c r="D107" t="n">
         <v>-18838587</v>
@@ -19630,7 +19630,7 @@
         <v>474694</v>
       </c>
       <c r="C110" t="n">
-        <v>-2879780</v>
+        <v>-2879779</v>
       </c>
       <c r="D110" t="n">
         <v>-18838587</v>
@@ -19805,7 +19805,7 @@
         <v>0</v>
       </c>
       <c r="C111" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D111" t="n">
         <v>0</v>
@@ -19980,7 +19980,7 @@
         <v>0</v>
       </c>
       <c r="C112" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D112" t="n">
         <v>0</v>
@@ -20695,7 +20695,7 @@
         <v>45501</v>
       </c>
       <c r="H116" t="n">
-        <v>43569</v>
+        <v>43570</v>
       </c>
       <c r="I116" t="n">
         <v>66922</v>
